--- a/src/algorithms/plan_fact_module/TAL.xlsx
+++ b/src/algorithms/plan_fact_module/TAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="11">
   <si>
     <t>CarAmount</t>
   </si>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B61" sqref="B32:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,7 +907,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>44410</v>
+        <v>44441</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -941,10 +941,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>44411</v>
+        <v>44442</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>44412</v>
+        <v>44443</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>44413</v>
+        <v>44444</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>44414</v>
+        <v>44445</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -1009,10 +1009,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>44415</v>
+        <v>44446</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>44416</v>
+        <v>44447</v>
       </c>
       <c r="B9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>44417</v>
+        <v>44448</v>
       </c>
       <c r="B10" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>44418</v>
+        <v>44449</v>
       </c>
       <c r="B11" s="7">
         <v>5</v>
@@ -1077,10 +1077,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>44419</v>
+        <v>44450</v>
       </c>
       <c r="B12" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>44420</v>
+        <v>44451</v>
       </c>
       <c r="B13" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>44421</v>
+        <v>44452</v>
       </c>
       <c r="B14" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>44422</v>
+        <v>44453</v>
       </c>
       <c r="B15" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>44423</v>
+        <v>44454</v>
       </c>
       <c r="B16" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>44424</v>
+        <v>44455</v>
       </c>
       <c r="B17" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>44425</v>
+        <v>44456</v>
       </c>
       <c r="B18" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>44426</v>
+        <v>44457</v>
       </c>
       <c r="B19" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>44427</v>
+        <v>44458</v>
       </c>
       <c r="B20" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>44428</v>
+        <v>44459</v>
       </c>
       <c r="B21" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>44429</v>
+        <v>44460</v>
       </c>
       <c r="B22" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>44430</v>
+        <v>44461</v>
       </c>
       <c r="B23" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>44431</v>
+        <v>44462</v>
       </c>
       <c r="B24" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>44432</v>
+        <v>44463</v>
       </c>
       <c r="B25" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>44433</v>
+        <v>44464</v>
       </c>
       <c r="B26" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>44434</v>
+        <v>44465</v>
       </c>
       <c r="B27" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>44435</v>
+        <v>44466</v>
       </c>
       <c r="B28" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>44436</v>
+        <v>44467</v>
       </c>
       <c r="B29" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>44437</v>
+        <v>44468</v>
       </c>
       <c r="B30" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>44438</v>
+        <v>44469</v>
       </c>
       <c r="B31" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -1417,26 +1417,26 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>44439</v>
-      </c>
-      <c r="B32" s="5">
+        <v>44440</v>
+      </c>
+      <c r="B32" s="7">
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>44409</v>
-      </c>
-      <c r="B33" s="7">
+        <v>44441</v>
+      </c>
+      <c r="B33" s="5">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1451,9 +1451,9 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>44410</v>
-      </c>
-      <c r="B34" s="5">
+        <v>44442</v>
+      </c>
+      <c r="B34" s="7">
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1468,9 +1468,9 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>44411</v>
-      </c>
-      <c r="B35" s="7">
+        <v>44443</v>
+      </c>
+      <c r="B35" s="5">
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1485,9 +1485,9 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>44412</v>
-      </c>
-      <c r="B36" s="5">
+        <v>44444</v>
+      </c>
+      <c r="B36" s="7">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1502,10 +1502,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>44413</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0</v>
+        <v>44445</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>8</v>
@@ -1519,9 +1519,9 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>44414</v>
-      </c>
-      <c r="B38" s="5">
+        <v>44446</v>
+      </c>
+      <c r="B38" s="7">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1536,10 +1536,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>44415</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0</v>
+        <v>44447</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>44416</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0</v>
+        <v>44448</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>8</v>
@@ -1570,9 +1570,9 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>44417</v>
-      </c>
-      <c r="B41" s="7">
+        <v>44449</v>
+      </c>
+      <c r="B41" s="5">
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1587,10 +1587,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>44418</v>
-      </c>
-      <c r="B42" s="5">
-        <v>4</v>
+        <v>44450</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>44419</v>
-      </c>
-      <c r="B43" s="7">
-        <v>4</v>
+        <v>44451</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
@@ -1621,10 +1621,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>44420</v>
-      </c>
-      <c r="B44" s="5">
-        <v>4</v>
+        <v>44452</v>
+      </c>
+      <c r="B44" s="7">
+        <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -1638,9 +1638,9 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44421</v>
-      </c>
-      <c r="B45" s="7">
+        <v>44453</v>
+      </c>
+      <c r="B45" s="5">
         <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1655,10 +1655,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>44422</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0</v>
+        <v>44454</v>
+      </c>
+      <c r="B46" s="7">
+        <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>44423</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0</v>
+        <v>44455</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -1689,9 +1689,9 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>44424</v>
-      </c>
-      <c r="B48" s="5">
+        <v>44456</v>
+      </c>
+      <c r="B48" s="7">
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1706,10 +1706,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>44425</v>
-      </c>
-      <c r="B49" s="7">
-        <v>4</v>
+        <v>44457</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>8</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>44426</v>
-      </c>
-      <c r="B50" s="5">
-        <v>4</v>
+        <v>44458</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>8</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>44427</v>
-      </c>
-      <c r="B51" s="7">
-        <v>4</v>
+        <v>44459</v>
+      </c>
+      <c r="B51" s="5">
+        <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>44428</v>
-      </c>
-      <c r="B52" s="5">
-        <v>4</v>
+        <v>44460</v>
+      </c>
+      <c r="B52" s="7">
+        <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>44429</v>
-      </c>
-      <c r="B53" s="7">
-        <v>0</v>
+        <v>44461</v>
+      </c>
+      <c r="B53" s="5">
+        <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
@@ -1791,10 +1791,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>44430</v>
-      </c>
-      <c r="B54" s="5">
-        <v>0</v>
+        <v>44462</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
@@ -1808,9 +1808,9 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>44431</v>
-      </c>
-      <c r="B55" s="7">
+        <v>44463</v>
+      </c>
+      <c r="B55" s="5">
         <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1825,10 +1825,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>44432</v>
-      </c>
-      <c r="B56" s="5">
-        <v>4</v>
+        <v>44464</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>44433</v>
-      </c>
-      <c r="B57" s="7">
-        <v>4</v>
+        <v>44465</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>44434</v>
-      </c>
-      <c r="B58" s="5">
-        <v>4</v>
+        <v>44466</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>44435</v>
-      </c>
-      <c r="B59" s="7">
-        <v>0</v>
+        <v>44467</v>
+      </c>
+      <c r="B59" s="5">
+        <v>8</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>44436</v>
-      </c>
-      <c r="B60" s="5">
-        <v>0</v>
+        <v>44468</v>
+      </c>
+      <c r="B60" s="7">
+        <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -1910,9 +1910,9 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>44437</v>
-      </c>
-      <c r="B61" s="7">
+        <v>44469</v>
+      </c>
+      <c r="B61" s="5">
         <v>0</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1927,7 +1927,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>44438</v>
+        <v>44440</v>
       </c>
       <c r="B62" s="5">
         <v>0</v>
@@ -1935,8 +1935,8 @@
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D62" t="s">
-        <v>9</v>
+      <c r="D62" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>7</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>44439</v>
+        <v>44441</v>
       </c>
       <c r="B63" s="7">
         <v>0</v>
@@ -1952,8 +1952,8 @@
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D63" t="s">
-        <v>9</v>
+      <c r="D63" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>7</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>44409</v>
+        <v>44442</v>
       </c>
       <c r="B64" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>44410</v>
+        <v>44443</v>
       </c>
       <c r="B65" s="7">
         <v>0</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>44411</v>
+        <v>44444</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>44412</v>
+        <v>44445</v>
       </c>
       <c r="B67" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>44413</v>
+        <v>44446</v>
       </c>
       <c r="B68" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>44414</v>
+        <v>44447</v>
       </c>
       <c r="B69" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>44415</v>
+        <v>44448</v>
       </c>
       <c r="B70" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>8</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>44416</v>
+        <v>44449</v>
       </c>
       <c r="B71" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>8</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>44417</v>
+        <v>44450</v>
       </c>
       <c r="B72" s="5">
         <v>0</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>44418</v>
+        <v>44451</v>
       </c>
       <c r="B73" s="7">
         <v>0</v>
@@ -2131,10 +2131,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>44419</v>
+        <v>44452</v>
       </c>
       <c r="B74" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>44420</v>
+        <v>44453</v>
       </c>
       <c r="B75" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>44421</v>
+        <v>44454</v>
       </c>
       <c r="B76" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>44422</v>
+        <v>44455</v>
       </c>
       <c r="B77" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>44423</v>
+        <v>44456</v>
       </c>
       <c r="B78" s="5">
         <v>0</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>44424</v>
+        <v>44457</v>
       </c>
       <c r="B79" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>44425</v>
+        <v>44458</v>
       </c>
       <c r="B80" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>44426</v>
+        <v>44459</v>
       </c>
       <c r="B81" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>8</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>44427</v>
+        <v>44460</v>
       </c>
       <c r="B82" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
@@ -2284,10 +2284,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>44428</v>
+        <v>44461</v>
       </c>
       <c r="B83" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>44429</v>
+        <v>44462</v>
       </c>
       <c r="B84" s="5">
         <v>0</v>
@@ -2318,7 +2318,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>44430</v>
+        <v>44463</v>
       </c>
       <c r="B85" s="7">
         <v>0</v>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>44431</v>
+        <v>44464</v>
       </c>
       <c r="B86" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>44432</v>
+        <v>44465</v>
       </c>
       <c r="B87" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>8</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>44433</v>
+        <v>44466</v>
       </c>
       <c r="B88" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="B89" s="7">
         <v>0</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>44435</v>
+        <v>44468</v>
       </c>
       <c r="B90" s="5">
         <v>0</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>44436</v>
+        <v>44469</v>
       </c>
       <c r="B91" s="7">
         <v>0</v>
@@ -2435,56 +2435,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>44437</v>
-      </c>
-      <c r="B92" s="5">
-        <v>0</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <v>44438</v>
-      </c>
-      <c r="B93" s="7">
-        <v>0</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>44439</v>
-      </c>
-      <c r="B94" s="5">
-        <v>0</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
